--- a/Multiclass/Multiclass_test_predictions.xlsx
+++ b/Multiclass/Multiclass_test_predictions.xlsx
@@ -423,7 +423,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -543,7 +543,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -573,7 +573,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -623,7 +623,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -693,7 +693,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -803,7 +803,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -823,7 +823,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -888,12 +888,12 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -918,7 +918,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -993,7 +993,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1058,7 +1058,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1068,7 +1068,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -1138,7 +1138,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -1153,7 +1153,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -1183,7 +1183,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1193,7 +1193,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -1213,7 +1213,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -1258,7 +1258,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -1338,7 +1338,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -1358,7 +1358,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -1373,7 +1373,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -1418,7 +1418,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -1478,7 +1478,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -1528,7 +1528,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -1628,7 +1628,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -1663,7 +1663,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -1693,7 +1693,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -1743,7 +1743,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -1758,12 +1758,12 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -1793,7 +1793,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -1828,7 +1828,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -1843,7 +1843,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -1973,7 +1973,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -2008,7 +2008,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -2023,7 +2023,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -2108,7 +2108,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -2168,12 +2168,12 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -2283,12 +2283,12 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -2298,7 +2298,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -2308,7 +2308,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -2343,7 +2343,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -2373,7 +2373,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -2428,12 +2428,12 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -2458,12 +2458,12 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -2503,7 +2503,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -2528,7 +2528,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -2543,17 +2543,17 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -2593,7 +2593,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -2668,7 +2668,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -2678,17 +2678,17 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -2718,7 +2718,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -2733,7 +2733,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -2803,12 +2803,12 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -2858,7 +2858,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -2963,7 +2963,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -2973,7 +2973,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -2988,7 +2988,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -2998,7 +2998,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -3053,7 +3053,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -3113,7 +3113,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540">
@@ -3128,7 +3128,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543">
@@ -3153,7 +3153,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -3198,7 +3198,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -3218,7 +3218,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -3243,7 +3243,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -3253,7 +3253,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -3293,7 +3293,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576">
@@ -3313,7 +3313,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -3328,7 +3328,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -3358,7 +3358,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -3368,7 +3368,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -3383,12 +3383,12 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -3418,7 +3418,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -3533,7 +3533,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -3573,7 +3573,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -3583,7 +3583,7 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -3648,12 +3648,12 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -3693,7 +3693,7 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656">
@@ -3703,7 +3703,7 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -3833,7 +3833,7 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684">
@@ -3878,7 +3878,7 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693">
@@ -3893,7 +3893,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696">
@@ -3903,7 +3903,7 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698">
@@ -3958,7 +3958,7 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -4068,7 +4068,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731">
@@ -4083,7 +4083,7 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734">
@@ -4108,7 +4108,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -4183,7 +4183,7 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -4203,7 +4203,7 @@
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758">
@@ -4218,7 +4218,7 @@
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -4228,7 +4228,7 @@
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763">
@@ -4243,12 +4243,12 @@
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767">
@@ -4263,7 +4263,7 @@
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770">
@@ -4278,7 +4278,7 @@
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773">
@@ -4293,7 +4293,7 @@
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -4383,7 +4383,7 @@
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
@@ -4518,7 +4518,7 @@
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821">
@@ -4548,7 +4548,7 @@
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827">
@@ -4693,7 +4693,7 @@
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856">
@@ -4708,7 +4708,7 @@
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859">
@@ -4753,7 +4753,7 @@
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868">
@@ -4763,7 +4763,7 @@
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870">
@@ -4773,12 +4773,12 @@
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873">
@@ -4853,12 +4853,12 @@
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -4893,7 +4893,7 @@
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -4998,7 +4998,7 @@
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917">
@@ -5118,7 +5118,7 @@
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941">
@@ -5328,7 +5328,7 @@
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983">
@@ -5353,7 +5353,7 @@
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988">
@@ -5378,7 +5378,7 @@
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993">
@@ -5408,7 +5408,7 @@
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999">
@@ -5438,7 +5438,7 @@
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005">
@@ -5468,12 +5468,12 @@
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012">
@@ -5498,17 +5498,17 @@
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019">
@@ -5568,7 +5568,7 @@
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031">
@@ -5608,7 +5608,7 @@
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039">
@@ -5668,7 +5668,7 @@
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051">
@@ -5783,7 +5783,7 @@
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074">
@@ -5858,12 +5858,12 @@
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090">
@@ -6053,7 +6053,7 @@
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128">
@@ -6083,7 +6083,7 @@
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134">
@@ -6128,7 +6128,7 @@
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143">
@@ -6138,7 +6138,7 @@
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145">
@@ -6153,7 +6153,7 @@
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148">
@@ -6168,7 +6168,7 @@
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151">
@@ -6223,7 +6223,7 @@
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162">
@@ -6233,7 +6233,7 @@
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164">
@@ -6253,7 +6253,7 @@
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168">
@@ -6303,7 +6303,7 @@
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178">
@@ -6338,7 +6338,7 @@
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185">
@@ -6353,7 +6353,7 @@
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188">
@@ -6413,7 +6413,7 @@
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200">
@@ -6428,7 +6428,7 @@
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203">
@@ -6438,7 +6438,7 @@
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205">
@@ -6483,12 +6483,12 @@
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215">
@@ -6528,7 +6528,7 @@
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223">
@@ -6548,7 +6548,7 @@
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227">
@@ -6563,7 +6563,7 @@
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230">
@@ -6593,12 +6593,12 @@
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -6618,7 +6618,7 @@
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241">
@@ -6713,7 +6713,7 @@
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260">
@@ -6733,7 +6733,7 @@
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264">
@@ -6748,12 +6748,12 @@
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268">
@@ -6768,12 +6768,12 @@
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272">
@@ -6783,7 +6783,7 @@
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274">
@@ -6828,7 +6828,7 @@
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283">
@@ -6883,7 +6883,7 @@
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294">
@@ -6903,7 +6903,7 @@
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298">
@@ -6923,7 +6923,7 @@
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302">
@@ -6938,7 +6938,7 @@
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1305">
@@ -7013,7 +7013,7 @@
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320">
@@ -7028,7 +7028,7 @@
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323">
@@ -7088,22 +7088,22 @@
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -7138,7 +7138,7 @@
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1345">
@@ -7153,12 +7153,12 @@
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1349">
@@ -7183,7 +7183,7 @@
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1354">
@@ -7223,12 +7223,12 @@
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363">
@@ -7278,7 +7278,7 @@
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1373">
@@ -7288,7 +7288,7 @@
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1375">
@@ -7328,7 +7328,7 @@
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1383">
@@ -7363,7 +7363,7 @@
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1390">
@@ -7393,7 +7393,7 @@
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1396">
@@ -7408,7 +7408,7 @@
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399">
@@ -7518,7 +7518,7 @@
     </row>
     <row r="1420">
       <c r="A1420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1421">
@@ -7533,7 +7533,7 @@
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -7603,7 +7603,7 @@
     </row>
     <row r="1437">
       <c r="A1437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1438">
@@ -7648,7 +7648,7 @@
     </row>
     <row r="1446">
       <c r="A1446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1447">
@@ -7663,7 +7663,7 @@
     </row>
     <row r="1449">
       <c r="A1449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1450">
@@ -7688,7 +7688,7 @@
     </row>
     <row r="1454">
       <c r="A1454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1455">
@@ -7703,7 +7703,7 @@
     </row>
     <row r="1457">
       <c r="A1457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1458">
@@ -7768,7 +7768,7 @@
     </row>
     <row r="1470">
       <c r="A1470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1471">
@@ -7958,7 +7958,7 @@
     </row>
     <row r="1508">
       <c r="A1508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1509">
@@ -7988,7 +7988,7 @@
     </row>
     <row r="1514">
       <c r="A1514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1515">
@@ -8068,7 +8068,7 @@
     </row>
     <row r="1530">
       <c r="A1530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1531">
@@ -8093,7 +8093,7 @@
     </row>
     <row r="1535">
       <c r="A1535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1536">
@@ -8108,7 +8108,7 @@
     </row>
     <row r="1538">
       <c r="A1538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1539">
@@ -8128,7 +8128,7 @@
     </row>
     <row r="1542">
       <c r="A1542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1543">
@@ -8208,7 +8208,7 @@
     </row>
     <row r="1558">
       <c r="A1558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1559">
@@ -8278,7 +8278,7 @@
     </row>
     <row r="1572">
       <c r="A1572" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1573">
@@ -8288,7 +8288,7 @@
     </row>
     <row r="1574">
       <c r="A1574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1575">
@@ -8303,7 +8303,7 @@
     </row>
     <row r="1577">
       <c r="A1577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1578">
@@ -8328,7 +8328,7 @@
     </row>
     <row r="1582">
       <c r="A1582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1583">
@@ -8473,22 +8473,22 @@
     </row>
     <row r="1611">
       <c r="A1611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1615">
@@ -8553,7 +8553,7 @@
     </row>
     <row r="1627">
       <c r="A1627" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1628">
@@ -8613,17 +8613,17 @@
     </row>
     <row r="1639">
       <c r="A1639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1642">
@@ -8718,12 +8718,12 @@
     </row>
     <row r="1660">
       <c r="A1660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1662">
@@ -8738,7 +8738,7 @@
     </row>
     <row r="1664">
       <c r="A1664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1665">
@@ -8853,7 +8853,7 @@
     </row>
     <row r="1687">
       <c r="A1687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1688">
@@ -8888,7 +8888,7 @@
     </row>
     <row r="1694">
       <c r="A1694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1695">
@@ -8918,7 +8918,7 @@
     </row>
     <row r="1700">
       <c r="A1700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1701">
@@ -8943,7 +8943,7 @@
     </row>
     <row r="1705">
       <c r="A1705" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1706">
@@ -8993,7 +8993,7 @@
     </row>
     <row r="1715">
       <c r="A1715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1716">
@@ -9043,7 +9043,7 @@
     </row>
     <row r="1725">
       <c r="A1725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1726">
@@ -9058,7 +9058,7 @@
     </row>
     <row r="1728">
       <c r="A1728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1729">
@@ -9178,17 +9178,17 @@
     </row>
     <row r="1752">
       <c r="A1752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1753">
       <c r="A1753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1754">
       <c r="A1754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1755">
@@ -9233,7 +9233,7 @@
     </row>
     <row r="1763">
       <c r="A1763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1764">
@@ -9338,12 +9338,12 @@
     </row>
     <row r="1784">
       <c r="A1784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1786">
@@ -9528,12 +9528,12 @@
     </row>
     <row r="1822">
       <c r="A1822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1823">
       <c r="A1823" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1824">
@@ -9543,7 +9543,7 @@
     </row>
     <row r="1825">
       <c r="A1825" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1826">
@@ -9618,7 +9618,7 @@
     </row>
     <row r="1840">
       <c r="A1840" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1841">
@@ -9718,7 +9718,7 @@
     </row>
     <row r="1860">
       <c r="A1860" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1861">
@@ -9738,7 +9738,7 @@
     </row>
     <row r="1864">
       <c r="A1864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1865">
@@ -9763,7 +9763,7 @@
     </row>
     <row r="1869">
       <c r="A1869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1870">
@@ -9798,7 +9798,7 @@
     </row>
     <row r="1876">
       <c r="A1876" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1877">
@@ -9813,7 +9813,7 @@
     </row>
     <row r="1879">
       <c r="A1879" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1880">
@@ -9843,7 +9843,7 @@
     </row>
     <row r="1885">
       <c r="A1885" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1886">
@@ -9863,7 +9863,7 @@
     </row>
     <row r="1889">
       <c r="A1889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1890">
@@ -9903,7 +9903,7 @@
     </row>
     <row r="1897">
       <c r="A1897" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1898">
@@ -9943,7 +9943,7 @@
     </row>
     <row r="1905">
       <c r="A1905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1906">
@@ -9968,7 +9968,7 @@
     </row>
     <row r="1910">
       <c r="A1910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1911">
@@ -9978,12 +9978,12 @@
     </row>
     <row r="1912">
       <c r="A1912" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1913">
       <c r="A1913" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1914">
@@ -10013,7 +10013,7 @@
     </row>
     <row r="1919">
       <c r="A1919" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1920">
@@ -10023,7 +10023,7 @@
     </row>
     <row r="1921">
       <c r="A1921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1922">
@@ -10078,7 +10078,7 @@
     </row>
     <row r="1932">
       <c r="A1932" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1933">
@@ -10158,7 +10158,7 @@
     </row>
     <row r="1948">
       <c r="A1948" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1949">
@@ -10228,7 +10228,7 @@
     </row>
     <row r="1962">
       <c r="A1962" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1963">
@@ -10288,7 +10288,7 @@
     </row>
     <row r="1974">
       <c r="A1974" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1975">
@@ -10368,7 +10368,7 @@
     </row>
     <row r="1990">
       <c r="A1990" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1991">
@@ -10408,7 +10408,7 @@
     </row>
     <row r="1998">
       <c r="A1998" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1999">
@@ -10448,7 +10448,7 @@
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2007">
@@ -10483,7 +10483,7 @@
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2014">
@@ -10513,7 +10513,7 @@
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2020">
@@ -10538,7 +10538,7 @@
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2025">
@@ -10588,7 +10588,7 @@
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2035">
@@ -10658,7 +10658,7 @@
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2049">
@@ -10693,7 +10693,7 @@
     </row>
     <row r="2055">
       <c r="A2055" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2056">
@@ -10748,12 +10748,12 @@
     </row>
     <row r="2066">
       <c r="A2066" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2067">
       <c r="A2067" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2068">
@@ -10768,12 +10768,12 @@
     </row>
     <row r="2070">
       <c r="A2070" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2071">
       <c r="A2071" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2072">
@@ -10788,17 +10788,17 @@
     </row>
     <row r="2074">
       <c r="A2074" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2075">
       <c r="A2075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2076">
       <c r="A2076" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2077">
@@ -10883,7 +10883,7 @@
     </row>
     <row r="2093">
       <c r="A2093" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2094">
@@ -11008,7 +11008,7 @@
     </row>
     <row r="2118">
       <c r="A2118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2119">
